--- a/tests/data/example-statement.xlsx
+++ b/tests/data/example-statement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbutler/code/journal-entries/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E963964B-5C16-F94A-9BFD-9E95A84B7A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450E658F-6143-D943-BF08-F8A1B05A8E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="2280" windowWidth="27240" windowHeight="16440" xr2:uid="{B2978032-5BC7-6942-B1D5-251E99E1BEA8}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,9 +42,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="128">
   <si>
-    <t>Account No.</t>
-  </si>
-  <si>
     <t>Posting Date</t>
   </si>
   <si>
@@ -425,6 +421,9 @@
   </si>
   <si>
     <t>BIRMING</t>
+  </si>
+  <si>
+    <t>Account Number</t>
   </si>
 </sst>
 </file>
@@ -836,7 +835,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,46 +851,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -908,25 +907,25 @@
         <v>718.22741900000005</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -943,25 +942,25 @@
         <v>285.67359599999997</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" t="s">
-        <v>43</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -978,25 +977,25 @@
         <v>483.78259800000006</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1013,25 +1012,25 @@
         <v>3303.0195899999985</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1048,25 +1047,25 @@
         <v>3862.2325949999936</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1083,25 +1082,25 @@
         <v>1596.9124080000004</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" t="s">
-        <v>53</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1118,25 +1117,25 @@
         <v>888.37721699999975</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1153,25 +1152,25 @@
         <v>727.57912499999986</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9">
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1188,25 +1187,25 @@
         <v>2419.6068000000009</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1223,25 +1222,25 @@
         <v>2377.886004</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1258,25 +1257,25 @@
         <v>1713.4041600000012</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1293,25 +1292,25 @@
         <v>1102.933</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
         <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1328,25 +1327,25 @@
         <v>254.61909199999994</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
         <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>25</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1363,25 +1362,25 @@
         <v>230.78444999999994</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
         <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1398,25 +1397,25 @@
         <v>1815.9405680000002</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
         <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>69</v>
       </c>
       <c r="J16">
         <v>5</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1433,25 +1432,25 @@
         <v>562.06932600000027</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
         <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1468,25 +1467,25 @@
         <v>479.43542400000007</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
         <v>26</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -1503,25 +1502,25 @@
         <v>1675.5151140000003</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
         <v>77</v>
-      </c>
-      <c r="H19" t="s">
-        <v>78</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1538,25 +1537,25 @@
         <v>635.46225600000025</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
       </c>
       <c r="J20">
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1573,25 +1572,25 @@
         <v>2680.9430960000004</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J21">
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1608,25 +1607,25 @@
         <v>1707.9795329999999</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1643,25 +1642,25 @@
         <v>3385.2234130000002</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
         <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
       </c>
       <c r="J23">
         <v>5</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1678,25 +1677,25 @@
         <v>587.6058109999999</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
         <v>28</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
       </c>
       <c r="J24">
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1713,25 +1712,25 @@
         <v>270.358296</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
-      </c>
-      <c r="H25" t="s">
-        <v>32</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1748,25 +1747,25 @@
         <v>133.54704999999998</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
         <v>37</v>
-      </c>
-      <c r="H26" t="s">
-        <v>38</v>
       </c>
       <c r="J26">
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1783,25 +1782,25 @@
         <v>375.72808000000003</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
         <v>99</v>
-      </c>
-      <c r="H27" t="s">
-        <v>100</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1818,25 +1817,25 @@
         <v>1101.6076500000004</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
         <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>36</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -1853,25 +1852,25 @@
         <v>161.43302499999999</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
         <v>22</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1888,25 +1887,25 @@
         <v>554.57625599999994</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1923,25 +1922,25 @@
         <v>762.67872199999999</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
         <v>81</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
       </c>
       <c r="J31">
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1958,25 +1957,25 @@
         <v>559.57262400000002</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
         <v>55</v>
-      </c>
-      <c r="H32" t="s">
-        <v>56</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1993,25 +1992,25 @@
         <v>883.2250700000003</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2028,25 +2027,25 @@
         <v>1692.3318750000001</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2063,25 +2062,25 @@
         <v>1019.1874680000001</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
         <v>70</v>
-      </c>
-      <c r="H35" t="s">
-        <v>71</v>
       </c>
       <c r="J35">
         <v>5</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2098,25 +2097,25 @@
         <v>586.21419999999989</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J36">
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2133,25 +2132,25 @@
         <v>684.47762500000044</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
         <v>86</v>
-      </c>
-      <c r="H37" t="s">
-        <v>87</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -2168,25 +2167,25 @@
         <v>2135.9106079999988</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" t="s">
         <v>94</v>
-      </c>
-      <c r="H38" t="s">
-        <v>95</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -2203,25 +2202,25 @@
         <v>583.63745700000004</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
         <v>19</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
       </c>
       <c r="J39">
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2238,25 +2237,25 @@
         <v>1712.9780160000003</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40">
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2273,25 +2272,25 @@
         <v>755.31137499999977</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s">
         <v>49</v>
-      </c>
-      <c r="H41" t="s">
-        <v>50</v>
       </c>
       <c r="J41">
         <v>4</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -2308,25 +2307,25 @@
         <v>123.60909600000001</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s">
         <v>40</v>
-      </c>
-      <c r="H42" t="s">
-        <v>41</v>
       </c>
       <c r="J42">
         <v>4</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2343,25 +2342,25 @@
         <v>215.36482500000005</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>4</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2378,25 +2377,25 @@
         <v>915.27813000000015</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J44">
         <v>4</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2413,25 +2412,25 @@
         <v>1412.3860140000002</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" t="s">
         <v>83</v>
-      </c>
-      <c r="H45" t="s">
-        <v>84</v>
       </c>
       <c r="J45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2448,25 +2447,25 @@
         <v>1891.3835850000003</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2483,25 +2482,25 @@
         <v>2161.2171749999998</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2518,25 +2517,25 @@
         <v>328.21931999999998</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2553,25 +2552,25 @@
         <v>608.87969999999996</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s">
         <v>90</v>
-      </c>
-      <c r="H49" t="s">
-        <v>91</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2588,25 +2587,25 @@
         <v>1037.8470309999998</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" t="s">
         <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>67</v>
       </c>
       <c r="J50">
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2623,25 +2622,25 @@
         <v>1430.8824399999999</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" t="s">
         <v>96</v>
-      </c>
-      <c r="H51" t="s">
-        <v>97</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -2658,25 +2657,25 @@
         <v>474.53965000000005</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -2693,25 +2692,25 @@
         <v>868.47032999999976</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s">
         <v>79</v>
-      </c>
-      <c r="H53" t="s">
-        <v>80</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2736,262 +2735,262 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/example-statement.xlsx
+++ b/tests/data/example-statement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbutler/code/journal-entries/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450E658F-6143-D943-BF08-F8A1B05A8E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE25A24-D0BB-B549-B1D1-3720A734E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="2280" windowWidth="27240" windowHeight="16440" xr2:uid="{B2978032-5BC7-6942-B1D5-251E99E1BEA8}"/>
+    <workbookView xWindow="-34000" yWindow="-2440" windowWidth="27240" windowHeight="16440" xr2:uid="{B2978032-5BC7-6942-B1D5-251E99E1BEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -497,6 +497,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -832,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6273EC-18C6-1543-8109-9512C39A1B3C}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +850,7 @@
     <col min="13" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -893,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>41000</v>
       </c>
@@ -904,7 +905,7 @@
         <v>45504</v>
       </c>
       <c r="D2" s="4">
-        <v>718.22741900000005</v>
+        <v>718.23</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -927,8 +928,9 @@
       <c r="N2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41000</v>
       </c>
@@ -939,7 +941,7 @@
         <v>45504</v>
       </c>
       <c r="D3" s="4">
-        <v>285.67359599999997</v>
+        <v>285.67</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -962,8 +964,9 @@
       <c r="N3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41000</v>
       </c>
@@ -974,7 +977,7 @@
         <v>45504</v>
       </c>
       <c r="D4" s="4">
-        <v>483.78259800000006</v>
+        <v>483.78</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -997,8 +1000,9 @@
       <c r="N4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>41000</v>
       </c>
@@ -1009,7 +1013,7 @@
         <v>45504</v>
       </c>
       <c r="D5" s="4">
-        <v>3303.0195899999985</v>
+        <v>3303.02</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1032,8 +1036,9 @@
       <c r="N5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>41000</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>45504</v>
       </c>
       <c r="D6" s="4">
-        <v>3862.2325949999936</v>
+        <v>3862.23</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1067,8 +1072,9 @@
       <c r="N6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>41000</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>45504</v>
       </c>
       <c r="D7" s="4">
-        <v>1596.9124080000004</v>
+        <v>1596.91</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1102,8 +1108,9 @@
       <c r="N7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>41000</v>
       </c>
@@ -1114,7 +1121,7 @@
         <v>45504</v>
       </c>
       <c r="D8" s="4">
-        <v>888.37721699999975</v>
+        <v>888.38</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1137,8 +1144,9 @@
       <c r="N8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>41000</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>45504</v>
       </c>
       <c r="D9" s="4">
-        <v>727.57912499999986</v>
+        <v>727.58</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1172,8 +1180,9 @@
       <c r="N9" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41000</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>45504</v>
       </c>
       <c r="D10" s="4">
-        <v>2419.6068000000009</v>
+        <v>2419.61</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1207,8 +1216,9 @@
       <c r="N10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>41000</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>45504</v>
       </c>
       <c r="D11" s="4">
-        <v>2377.886004</v>
+        <v>2377.89</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1242,8 +1252,9 @@
       <c r="N11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>41000</v>
       </c>
@@ -1254,7 +1265,7 @@
         <v>45504</v>
       </c>
       <c r="D12" s="4">
-        <v>1713.4041600000012</v>
+        <v>1713.4</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1277,8 +1288,9 @@
       <c r="N12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41000</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>45504</v>
       </c>
       <c r="D13" s="4">
-        <v>1102.933</v>
+        <v>1102.93</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1312,8 +1324,9 @@
       <c r="N13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>41000</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>45504</v>
       </c>
       <c r="D14" s="4">
-        <v>254.61909199999994</v>
+        <v>254.62</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1347,8 +1360,9 @@
       <c r="N14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>41000</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>45504</v>
       </c>
       <c r="D15" s="4">
-        <v>230.78444999999994</v>
+        <v>230.78</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1382,8 +1396,9 @@
       <c r="N15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>41000</v>
       </c>
@@ -1394,7 +1409,7 @@
         <v>45504</v>
       </c>
       <c r="D16" s="4">
-        <v>1815.9405680000002</v>
+        <v>1815.94</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1417,8 +1432,9 @@
       <c r="N16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>41000</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>45504</v>
       </c>
       <c r="D17" s="4">
-        <v>562.06932600000027</v>
+        <v>562.07000000000005</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1452,8 +1468,9 @@
       <c r="N17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>41000</v>
       </c>
@@ -1464,7 +1481,7 @@
         <v>45504</v>
       </c>
       <c r="D18" s="4">
-        <v>479.43542400000007</v>
+        <v>479.44</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1487,8 +1504,9 @@
       <c r="N18" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>41000</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>45504</v>
       </c>
       <c r="D19" s="4">
-        <v>1675.5151140000003</v>
+        <v>1675.52</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -1522,8 +1540,9 @@
       <c r="N19" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41000</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>45504</v>
       </c>
       <c r="D20" s="4">
-        <v>635.46225600000025</v>
+        <v>635.46</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1557,8 +1576,9 @@
       <c r="N20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>41000</v>
       </c>
@@ -1569,7 +1589,7 @@
         <v>45504</v>
       </c>
       <c r="D21" s="4">
-        <v>2680.9430960000004</v>
+        <v>2680.94</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1592,8 +1612,9 @@
       <c r="N21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>41000</v>
       </c>
@@ -1604,7 +1625,7 @@
         <v>45504</v>
       </c>
       <c r="D22" s="4">
-        <v>1707.9795329999999</v>
+        <v>1707.98</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1627,8 +1648,9 @@
       <c r="N22" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>41000</v>
       </c>
@@ -1639,7 +1661,7 @@
         <v>45504</v>
       </c>
       <c r="D23" s="4">
-        <v>3385.2234130000002</v>
+        <v>3385.22</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1662,8 +1684,9 @@
       <c r="N23" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>41000</v>
       </c>
@@ -1674,7 +1697,7 @@
         <v>45504</v>
       </c>
       <c r="D24" s="4">
-        <v>587.6058109999999</v>
+        <v>587.61</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1697,8 +1720,9 @@
       <c r="N24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>41000</v>
       </c>
@@ -1709,7 +1733,7 @@
         <v>45504</v>
       </c>
       <c r="D25" s="4">
-        <v>270.358296</v>
+        <v>270.36</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1732,8 +1756,9 @@
       <c r="N25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>41000</v>
       </c>
@@ -1744,7 +1769,7 @@
         <v>45504</v>
       </c>
       <c r="D26" s="4">
-        <v>133.54704999999998</v>
+        <v>133.55000000000001</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1767,8 +1792,9 @@
       <c r="N26" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>41000</v>
       </c>
@@ -1779,7 +1805,7 @@
         <v>45504</v>
       </c>
       <c r="D27" s="4">
-        <v>375.72808000000003</v>
+        <v>375.73</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1802,8 +1828,9 @@
       <c r="N27" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>41000</v>
       </c>
@@ -1814,7 +1841,7 @@
         <v>45504</v>
       </c>
       <c r="D28" s="4">
-        <v>1101.6076500000004</v>
+        <v>1101.6099999999999</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -1837,8 +1864,9 @@
       <c r="N28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>41000</v>
       </c>
@@ -1849,7 +1877,7 @@
         <v>45504</v>
       </c>
       <c r="D29" s="4">
-        <v>161.43302499999999</v>
+        <v>161.43</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1872,8 +1900,9 @@
       <c r="N29" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>41000</v>
       </c>
@@ -1884,7 +1913,7 @@
         <v>45504</v>
       </c>
       <c r="D30" s="4">
-        <v>554.57625599999994</v>
+        <v>554.58000000000004</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -1907,8 +1936,9 @@
       <c r="N30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -1919,7 +1949,7 @@
         <v>45504</v>
       </c>
       <c r="D31" s="4">
-        <v>762.67872199999999</v>
+        <v>762.68</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1942,8 +1972,9 @@
       <c r="N31" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>41000</v>
       </c>
@@ -1954,7 +1985,7 @@
         <v>45504</v>
       </c>
       <c r="D32" s="4">
-        <v>559.57262400000002</v>
+        <v>559.57000000000005</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1977,8 +2008,9 @@
       <c r="N32" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>41000</v>
       </c>
@@ -1989,7 +2021,7 @@
         <v>45504</v>
       </c>
       <c r="D33" s="4">
-        <v>883.2250700000003</v>
+        <v>883.23</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -2012,8 +2044,9 @@
       <c r="N33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="5"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>41000</v>
       </c>
@@ -2024,7 +2057,7 @@
         <v>45504</v>
       </c>
       <c r="D34" s="4">
-        <v>1692.3318750000001</v>
+        <v>1692.33</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -2047,8 +2080,9 @@
       <c r="N34" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>41000</v>
       </c>
@@ -2059,7 +2093,7 @@
         <v>45504</v>
       </c>
       <c r="D35" s="4">
-        <v>1019.1874680000001</v>
+        <v>1019.19</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2082,8 +2116,9 @@
       <c r="N35" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>41000</v>
       </c>
@@ -2094,7 +2129,7 @@
         <v>45504</v>
       </c>
       <c r="D36" s="4">
-        <v>586.21419999999989</v>
+        <v>586.21</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -2117,8 +2152,9 @@
       <c r="N36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>41000</v>
       </c>
@@ -2129,7 +2165,7 @@
         <v>45504</v>
       </c>
       <c r="D37" s="4">
-        <v>684.47762500000044</v>
+        <v>684.48</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -2152,8 +2188,9 @@
       <c r="N37" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>41000</v>
       </c>
@@ -2164,7 +2201,7 @@
         <v>45504</v>
       </c>
       <c r="D38" s="4">
-        <v>2135.9106079999988</v>
+        <v>2135.91</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -2187,8 +2224,9 @@
       <c r="N38" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>41000</v>
       </c>
@@ -2199,7 +2237,7 @@
         <v>45504</v>
       </c>
       <c r="D39" s="4">
-        <v>583.63745700000004</v>
+        <v>583.64</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -2222,8 +2260,9 @@
       <c r="N39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>41000</v>
       </c>
@@ -2234,7 +2273,7 @@
         <v>45504</v>
       </c>
       <c r="D40" s="4">
-        <v>1712.9780160000003</v>
+        <v>1712.98</v>
       </c>
       <c r="E40" t="s">
         <v>13</v>
@@ -2257,8 +2296,9 @@
       <c r="N40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>41000</v>
       </c>
@@ -2269,7 +2309,7 @@
         <v>45504</v>
       </c>
       <c r="D41" s="4">
-        <v>755.31137499999977</v>
+        <v>755.31</v>
       </c>
       <c r="E41" t="s">
         <v>13</v>
@@ -2292,8 +2332,9 @@
       <c r="N41" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41000</v>
       </c>
@@ -2304,7 +2345,7 @@
         <v>45504</v>
       </c>
       <c r="D42" s="4">
-        <v>123.60909600000001</v>
+        <v>123.61</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -2327,8 +2368,9 @@
       <c r="N42" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41000</v>
       </c>
@@ -2339,7 +2381,7 @@
         <v>45504</v>
       </c>
       <c r="D43" s="4">
-        <v>215.36482500000005</v>
+        <v>215.36</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -2362,8 +2404,9 @@
       <c r="N43" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41000</v>
       </c>
@@ -2374,7 +2417,7 @@
         <v>45504</v>
       </c>
       <c r="D44" s="4">
-        <v>915.27813000000015</v>
+        <v>915.28</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -2397,8 +2440,9 @@
       <c r="N44" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>41000</v>
       </c>
@@ -2409,7 +2453,7 @@
         <v>45504</v>
       </c>
       <c r="D45" s="4">
-        <v>1412.3860140000002</v>
+        <v>1412.39</v>
       </c>
       <c r="E45" t="s">
         <v>13</v>
@@ -2432,8 +2476,9 @@
       <c r="N45" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>41000</v>
       </c>
@@ -2444,7 +2489,7 @@
         <v>45504</v>
       </c>
       <c r="D46" s="4">
-        <v>1891.3835850000003</v>
+        <v>1891.38</v>
       </c>
       <c r="E46" t="s">
         <v>13</v>
@@ -2467,8 +2512,9 @@
       <c r="N46" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>41000</v>
       </c>
@@ -2479,7 +2525,7 @@
         <v>45504</v>
       </c>
       <c r="D47" s="4">
-        <v>2161.2171749999998</v>
+        <v>2161.2199999999998</v>
       </c>
       <c r="E47" t="s">
         <v>13</v>
@@ -2502,8 +2548,9 @@
       <c r="N47" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41000</v>
       </c>
@@ -2514,7 +2561,7 @@
         <v>45504</v>
       </c>
       <c r="D48" s="4">
-        <v>328.21931999999998</v>
+        <v>328.22</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -2537,8 +2584,9 @@
       <c r="N48" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>41000</v>
       </c>
@@ -2549,7 +2597,7 @@
         <v>45504</v>
       </c>
       <c r="D49" s="4">
-        <v>608.87969999999996</v>
+        <v>608.88</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -2572,8 +2620,9 @@
       <c r="N49" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>41000</v>
       </c>
@@ -2584,7 +2633,7 @@
         <v>45504</v>
       </c>
       <c r="D50" s="4">
-        <v>1037.8470309999998</v>
+        <v>1037.8499999999999</v>
       </c>
       <c r="E50" t="s">
         <v>13</v>
@@ -2607,8 +2656,9 @@
       <c r="N50" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>41000</v>
       </c>
@@ -2619,7 +2669,7 @@
         <v>45504</v>
       </c>
       <c r="D51" s="4">
-        <v>1430.8824399999999</v>
+        <v>1430.88</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -2642,8 +2692,9 @@
       <c r="N51" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="5"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>41000</v>
       </c>
@@ -2654,7 +2705,7 @@
         <v>45504</v>
       </c>
       <c r="D52" s="4">
-        <v>474.53965000000005</v>
+        <v>474.54</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -2677,8 +2728,9 @@
       <c r="N52" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>41000</v>
       </c>
@@ -2689,7 +2741,7 @@
         <v>45504</v>
       </c>
       <c r="D53" s="4">
-        <v>868.47032999999976</v>
+        <v>868.47</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
@@ -2712,6 +2764,7 @@
       <c r="N53" t="s">
         <v>118</v>
       </c>
+      <c r="O53" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N53" xr:uid="{FB6273EC-18C6-1543-8109-9512C39A1B3C}">
